--- a/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/CentralTendency.xlsx
+++ b/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/CentralTendency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arwenshackelford/curriculum/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/DataViz-Lesson-Plans_Active/01-Lesson-Plans/01-Excel/2/Activities/05-Ins_CentralTendency/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D80524A-22F4-C741-8E8E-9231F75A930F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB91ADA8-C647-F547-B42F-F0E0C68580B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23640" yWindow="2680" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mean Example" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Sum of Values:</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Excel Single-Mode Function:</t>
+  </si>
+  <si>
+    <t>Median unsorted</t>
   </si>
 </sst>
 </file>
@@ -3784,7 +3787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4098,7 +4103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDF04A9-084C-844B-8575-F334579C420A}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4213,8 +4220,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
+        <f>MEDIAN(A2:A31)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -4468,7 +4480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0812124F-9E5E-8045-AC7B-048D697B08A3}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4793,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EDFE5C-0ABF-A44C-A15C-1A9152000E71}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
